--- a/excel/sales.xlsx
+++ b/excel/sales.xlsx
@@ -684,7 +684,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>martes, 16 de abril del 2024</t>
+          <t>lunes, 29 de abril del 2024</t>
         </is>
       </c>
     </row>
